--- a/tables/3.Educación/cuadros_educacion.xlsx
+++ b/tables/3.Educación/cuadros_educacion.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="pedido42" r:id="rId3" sheetId="1"/>
+    <sheet name="pedido44" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>q47_estudiando_argentina</t>
   </si>
@@ -96,6 +97,45 @@
   </si>
   <si>
     <t>Si</t>
+  </si>
+  <si>
+    <t>q17_dni_tenencia</t>
+  </si>
+  <si>
+    <t>titulo</t>
+  </si>
+  <si>
+    <t>dni</t>
+  </si>
+  <si>
+    <t>doc_escolar</t>
+  </si>
+  <si>
+    <t>inscripcion</t>
+  </si>
+  <si>
+    <t>costos</t>
+  </si>
+  <si>
+    <t>discriminacion</t>
+  </si>
+  <si>
+    <t>Título origen</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>Documentación escolar</t>
+  </si>
+  <si>
+    <t>Inscripción online</t>
+  </si>
+  <si>
+    <t>Costos</t>
+  </si>
+  <si>
+    <t>Discriminació</t>
   </si>
 </sst>
 </file>
@@ -389,4 +429,167 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="n">
+        <v>327.109984657</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.288150419</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.50301035</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.286870255</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.466419039</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.205005871</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.7933505080000005</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4351.93560552</v>
+      </c>
+      <c r="C3" t="n">
+        <v>52.305704404000004</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.511633739</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19.805413001999998</v>
+      </c>
+      <c r="F3" t="n">
+        <v>18.592710278000002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15.290340855</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12.703299546</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15.57471879</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/tables/3.Educación/cuadros_educacion.xlsx
+++ b/tables/3.Educación/cuadros_educacion.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/martnez_unhcr_org/Documents/Desktop/AYELEN/ENMA/ENMA_repositorio/enma2023/tables/3.Educación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_51ACA6A5A54310C1F253151C8A7E4A054CA6C85A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAA05B0E-F38C-4A23-B5F7-8FB7A63AF4E8}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_51ACA6A5A54310C1F253151C8A7E4A054CA6C85A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8C1C79B-B03A-46B1-9995-848E4B51CE89}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pedido42" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="pedido38" sheetId="7" r:id="rId7"/>
     <sheet name="pedido38_v2" sheetId="8" r:id="rId8"/>
     <sheet name="pedido39" sheetId="9" r:id="rId9"/>
-    <sheet name="pedido41" r:id="rId13" sheetId="10"/>
-    <sheet name="pedido41_tot" r:id="rId14" sheetId="11"/>
+    <sheet name="pedido41" sheetId="10" r:id="rId10"/>
+    <sheet name="pedido41_tot" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -310,7 +310,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -908,14 +907,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -929,188 +928,188 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>29.9</v>
       </c>
-      <c r="C2" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2">
+        <v>37</v>
+      </c>
+      <c r="D2">
         <v>25.9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>29.8</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>23.9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>21.9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2.8</v>
       </c>
-      <c r="C5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
         <v>4.5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>4.3</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>3.3</v>
       </c>
-      <c r="D6" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1.8</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>2.6</v>
       </c>
-      <c r="D7" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>1.2</v>
       </c>
-      <c r="D8" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>13.8</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>15.4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>21.1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
         <v>2.9</v>
       </c>
-      <c r="D10" t="n">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>65</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>0.4</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.8</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>66</v>
       </c>
-      <c r="B12" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C12">
         <v>2.9</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>10.3</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>86</v>
       </c>
-      <c r="B13" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>100.0</v>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>85</v>
       </c>
@@ -1124,176 +1123,176 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="n">
-        <v>409.133299813</v>
-      </c>
-      <c r="C2" t="n">
-        <v>29.948071472</v>
-      </c>
-      <c r="D2" t="n">
-        <v>93.169980528</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2">
+        <v>409.13329981300001</v>
+      </c>
+      <c r="C2">
+        <v>29.948071471999999</v>
+      </c>
+      <c r="D2">
+        <v>93.169980527999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="n">
-        <v>407.328832126</v>
-      </c>
-      <c r="C3" t="n">
-        <v>19.400654986</v>
-      </c>
-      <c r="D3" t="n">
-        <v>78.750362536</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3">
+        <v>407.32883212600001</v>
+      </c>
+      <c r="C3">
+        <v>19.400654985999999</v>
+      </c>
+      <c r="D3">
+        <v>78.750362535999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="n">
-        <v>139.496147133</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.847002747</v>
-      </c>
-      <c r="D4" t="n">
-        <v>35.840056629</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>139.49614713299999</v>
+      </c>
+      <c r="C4">
+        <v>4.8470027470000003</v>
+      </c>
+      <c r="D4">
+        <v>35.840056629000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" t="n">
-        <v>37.980027066</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3.248580678</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.323084168</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5">
+        <v>37.980027065999998</v>
+      </c>
+      <c r="C5">
+        <v>3.2485806780000002</v>
+      </c>
+      <c r="D5">
+        <v>16.323084168000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="n">
-        <v>58.113980821</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.662667955</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.010464304</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6">
+        <v>58.113980820999998</v>
+      </c>
+      <c r="C6">
+        <v>2.6626679549999999</v>
+      </c>
+      <c r="D6">
+        <v>7.0104643040000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="n">
-        <v>24.523378604</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>24.523378604000001</v>
+      </c>
+      <c r="C7">
         <v>2.104012285</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3.613769451</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="n">
-        <v>188.032251568</v>
-      </c>
-      <c r="C9" t="n">
-        <v>12.511979354</v>
-      </c>
-      <c r="D9" t="n">
-        <v>75.935650759</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9">
+        <v>188.03225156799999</v>
+      </c>
+      <c r="C9">
+        <v>12.511979353999999</v>
+      </c>
+      <c r="D9">
+        <v>75.935650758999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="n">
-        <v>27.235797349</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.331131313</v>
-      </c>
-      <c r="D10" t="n">
-        <v>8.106678616</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>27.235797348999998</v>
+      </c>
+      <c r="C10">
+        <v>2.3311313130000002</v>
+      </c>
+      <c r="D10">
+        <v>8.1066786159999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>65</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>6.0340712240000025</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.642777126</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.337386331</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="C11">
+        <v>0.64277712600000003</v>
+      </c>
+      <c r="D11">
+        <v>3.3373863309999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>66</v>
       </c>
-      <c r="B12" t="n">
-        <v>69.121343741</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.319124971</v>
-      </c>
-      <c r="D12" t="n">
-        <v>37.124563607</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12">
+        <v>69.121343741000004</v>
+      </c>
+      <c r="C12">
+        <v>2.3191249709999999</v>
+      </c>
+      <c r="D12">
+        <v>37.124563606999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>86</v>
       </c>
-      <c r="B13" t="n">
-        <v>1366.999129445</v>
-      </c>
-      <c r="C13" t="n">
-        <v>81.016002887</v>
-      </c>
-      <c r="D13" t="n">
-        <v>359.211996929</v>
+      <c r="B13">
+        <v>1366.9991294450001</v>
+      </c>
+      <c r="C13">
+        <v>81.016002886999999</v>
+      </c>
+      <c r="D13">
+        <v>359.21199692900001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1627,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1693,6 +1692,12 @@
       </c>
       <c r="F3">
         <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <f>+C2/(C2+D2)*100</f>
+        <v>80.649904480772733</v>
       </c>
     </row>
   </sheetData>
@@ -3112,7 +3117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:L4"/>
     </sheetView>
   </sheetViews>
